--- a/src/main/resources/products.xlsx
+++ b/src/main/resources/products.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="0" windowWidth="19560" windowHeight="8250"/>
+    <workbookView xWindow="4650" yWindow="0" windowWidth="19560" windowHeight="8250"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
-  <si>
-    <t>searchKey</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>name</t>
   </si>
@@ -30,25 +27,10 @@
     <t>description</t>
   </si>
   <si>
-    <t>EURO</t>
-  </si>
-  <si>
-    <t>POUND_STERLING</t>
-  </si>
-  <si>
-    <t>US_DOLLAR</t>
-  </si>
-  <si>
-    <t>mac</t>
-  </si>
-  <si>
     <t>MacBook</t>
   </si>
   <si>
     <t>Intel Core 2 Duo processor Powered by an Intel Core 2 Duo processor at speeds up to 2.1..</t>
-  </si>
-  <si>
-    <t>iphone</t>
   </si>
   <si>
     <t>iPhone</t>
@@ -61,6 +43,9 @@
   </si>
   <si>
     <t>MacBook Air is ultrathin, ultraportable, and ultra unlike anything else. But you donâ€™t lose..</t>
+  </si>
+  <si>
+    <t>price</t>
   </si>
 </sst>
 </file>
@@ -869,93 +854,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="B1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D2">
+        <v>500</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
+      <c r="D3">
+        <v>101</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2">
-        <v>472.33</v>
-      </c>
-      <c r="E2">
-        <v>368.73</v>
-      </c>
-      <c r="F2" s="2">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3">
-        <v>96.66</v>
-      </c>
-      <c r="E3">
-        <v>75.459999999999994</v>
-      </c>
-      <c r="F3">
-        <v>123.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
       <c r="D4">
-        <v>943.09</v>
-      </c>
-      <c r="E4">
-        <v>736.23</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1202</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="F4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
